--- a/artfynd/A 42793-2023.xlsx
+++ b/artfynd/A 42793-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,6 +800,2306 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112294520</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Skärsjön, Srm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>595834</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6566747</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Tiotals fruktkroppar</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112300025</v>
+      </c>
+      <c r="B4" t="n">
+        <v>56575</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>par i lämplig häckbiotop</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Talltita, Skärsjön, Srm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>595883</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6566747</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ett par observerades i kontinuitetsskogen som tyvärr är underröjd och avverkningsplanerad.</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112294023</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Skärsjön, Srm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>595935</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6566771</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>17:41</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>17:41</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112294671</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90155</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6031</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sparassis crispa</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Skärsjön, Srm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>595731</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6566635</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112306539</v>
+      </c>
+      <c r="B7" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Skärsjön, Srm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>595969</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6566774</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>10:48</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>10:48</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112306221</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8377</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Skärsjön, Srm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>595888</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6566731</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112307220</v>
+      </c>
+      <c r="B9" t="n">
+        <v>93539</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Leucobryum glaucum</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Siggsäter, Srm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>596093</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6566778</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Blåmossa. Kuddar 40 cm höga.</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112307652</v>
+      </c>
+      <c r="B10" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Siggsäter, Srm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>596054</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6566713</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ca 80 plantor inom 1 kvm. Fler finns troligen. Skogen är avverkningsanmäld.</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112308172</v>
+      </c>
+      <c r="B11" t="n">
+        <v>56446</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Siggsäter, Srm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>596064</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6566779</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112306905</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8377</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Skärsjön, Srm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>596020</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6566834</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112310177</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Siggsäter, Srm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>596043</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6566512</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>14:18</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>14:18</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112309047</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Skärsjön, Srm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>595832</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6566651</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112309929</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Skärsjön, Srm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>595858</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6566702</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112308733</v>
+      </c>
+      <c r="B16" t="n">
+        <v>56446</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Skärsjön, Srm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>595908</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6566669</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112328636</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8377</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Skärsjön, Skärsjön, Srm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>595873</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6566624</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Fleras lågor med gnagspår av mindre märgborre i området. Skogen är avverkningsanmäld.</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Barrblandskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Gnagspår på liggande tallåga.</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gnagspår på liggande tallåga.</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112329678</v>
+      </c>
+      <c r="B18" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Skärsjön, Siggsäter, Srm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>596065</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6566785</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Trettio plantor troligen mer. Växt intill en senvuxen gammal björk som i gammal mossig skog. Björken och de senvuxna granarna har åkt med vid unberröjning för planerad avverkning.</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Barrblandskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112329103</v>
+      </c>
+      <c r="B19" t="n">
+        <v>88953</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5685</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Gullgröppa</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pseudomerulius aureus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.) Jülich</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Skärsjön, Siggsäter, Srm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>596050</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6566744</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Växer på båda sidor oro grov tallåga i fuktig miljö.</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Barrblandskog. Lokalt fuktig miljö intill kärr. Kontinutetsskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112328985</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56446</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Skärsjön, Skärsjön, Srm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>595849</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6566627</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Ärla</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Spillkråka födosökte vid roten av en gammal tall.</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Hällmarkstallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 42793-2023.xlsx
+++ b/artfynd/A 42793-2023.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112294520</v>
+        <v>112294671</v>
       </c>
       <c r="B3" t="n">
-        <v>90800</v>
+        <v>90169</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>6031</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -849,13 +849,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>595834</v>
+        <v>595731</v>
       </c>
       <c r="R3" t="n">
-        <v>6566747</v>
+        <v>6566635</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -894,12 +894,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Tiotals fruktkroppar</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -926,10 +921,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112300025</v>
+        <v>112294520</v>
       </c>
       <c r="B4" t="n">
-        <v>56575</v>
+        <v>90814</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,49 +933,48 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>par i lämplig häckbiotop</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Talltita, Skärsjön, Srm</t>
+          <t>Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>595883</v>
+        <v>595834</v>
       </c>
       <c r="R4" t="n">
         <v>6566747</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1024,7 +1018,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ett par observerades i kontinuitetsskogen som tyvärr är underröjd och avverkningsplanerad.</t>
+          <t>Tiotals fruktkroppar</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1035,16 +1029,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Tallskog. Kontinuitetsskog</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1061,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112294023</v>
+        <v>112300025</v>
       </c>
       <c r="B5" t="n">
-        <v>90823</v>
+        <v>56575</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1077,44 +1061,45 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>par i lämplig häckbiotop</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Skärsjön, Srm</t>
+          <t>Talltita, Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>595935</v>
+        <v>595883</v>
       </c>
       <c r="R5" t="n">
-        <v>6566771</v>
+        <v>6566747</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1143,7 +1128,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1153,7 +1138,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Ett par observerades i kontinuitetsskogen som tyvärr är underröjd och avverkningsplanerad.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1164,6 +1154,16 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1180,10 +1180,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112294671</v>
+        <v>112294023</v>
       </c>
       <c r="B6" t="n">
-        <v>90155</v>
+        <v>90837</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1192,25 +1192,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6031</v>
+        <v>5966</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>595731</v>
+        <v>595935</v>
       </c>
       <c r="R6" t="n">
-        <v>6566635</v>
+        <v>6566771</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1299,10 +1299,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112306539</v>
+        <v>112306221</v>
       </c>
       <c r="B7" t="n">
-        <v>96720</v>
+        <v>8377</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1311,35 +1311,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>106545</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1347,13 +1352,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>595969</v>
+        <v>595888</v>
       </c>
       <c r="R7" t="n">
-        <v>6566774</v>
+        <v>6566731</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1382,7 +1387,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1392,7 +1397,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1419,10 +1424,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112306221</v>
+        <v>112309047</v>
       </c>
       <c r="B8" t="n">
-        <v>8377</v>
+        <v>90814</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1435,36 +1440,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1472,13 +1467,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>595888</v>
+        <v>595832</v>
       </c>
       <c r="R8" t="n">
-        <v>6566731</v>
+        <v>6566651</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1507,7 +1502,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1517,7 +1512,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1544,10 +1539,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112307220</v>
+        <v>112306905</v>
       </c>
       <c r="B9" t="n">
-        <v>93539</v>
+        <v>8377</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1560,38 +1555,47 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2180</v>
+        <v>106545</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Siggsäter, Srm</t>
+          <t>Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>596093</v>
+        <v>596020</v>
       </c>
       <c r="R9" t="n">
-        <v>6566778</v>
+        <v>6566834</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1623,7 +1627,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1633,12 +1637,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Blåmossa. Kuddar 40 cm höga.</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1665,10 +1664,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112307652</v>
+        <v>112307220</v>
       </c>
       <c r="B10" t="n">
-        <v>96720</v>
+        <v>93553</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1677,33 +1676,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>2180</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1713,10 +1708,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>596054</v>
+        <v>596093</v>
       </c>
       <c r="R10" t="n">
-        <v>6566713</v>
+        <v>6566778</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1748,7 +1743,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1758,12 +1753,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ca 80 plantor inom 1 kvm. Fler finns troligen. Skogen är avverkningsanmäld.</t>
+          <t>Blåmossa. Kuddar 40 cm höga.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1790,10 +1785,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112308172</v>
+        <v>112306539</v>
       </c>
       <c r="B11" t="n">
-        <v>56446</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1802,53 +1797,49 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Siggsäter, Srm</t>
+          <t>Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>596064</v>
+        <v>595969</v>
       </c>
       <c r="R11" t="n">
-        <v>6566779</v>
+        <v>6566774</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1877,7 +1868,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1887,7 +1878,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1914,10 +1905,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112306905</v>
+        <v>112308172</v>
       </c>
       <c r="B12" t="n">
-        <v>8377</v>
+        <v>56446</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1926,25 +1917,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1952,28 +1943,27 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Skärsjön, Srm</t>
+          <t>Siggsäter, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>596020</v>
+        <v>596064</v>
       </c>
       <c r="R12" t="n">
-        <v>6566834</v>
+        <v>6566779</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2002,7 +1992,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2012,7 +2002,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2042,7 +2032,7 @@
         <v>112310177</v>
       </c>
       <c r="B13" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2158,10 +2148,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112309047</v>
+        <v>112307652</v>
       </c>
       <c r="B14" t="n">
-        <v>90800</v>
+        <v>96735</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2170,41 +2160,46 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Skärsjön, Srm</t>
+          <t>Siggsäter, Srm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>595832</v>
+        <v>596054</v>
       </c>
       <c r="R14" t="n">
-        <v>6566651</v>
+        <v>6566713</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2236,7 +2231,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2246,7 +2241,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ca 80 plantor inom 1 kvm. Fler finns troligen. Skogen är avverkningsanmäld.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2273,10 +2273,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112309929</v>
+        <v>112308733</v>
       </c>
       <c r="B15" t="n">
-        <v>90823</v>
+        <v>56446</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2289,30 +2289,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5966</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2320,13 +2325,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>595858</v>
+        <v>595908</v>
       </c>
       <c r="R15" t="n">
-        <v>6566702</v>
+        <v>6566669</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2355,7 +2360,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2365,7 +2370,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2392,10 +2397,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112308733</v>
+        <v>112328636</v>
       </c>
       <c r="B16" t="n">
-        <v>56446</v>
+        <v>8377</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2404,53 +2409,50 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Skärsjön, Srm</t>
+          <t>Skärsjön, Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>595908</v>
+        <v>595873</v>
       </c>
       <c r="R16" t="n">
-        <v>6566669</v>
+        <v>6566624</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2479,7 +2481,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2489,7 +2491,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Fleras lågor med gnagspår av mindre märgborre i området. Skogen är avverkningsanmäld.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2498,8 +2505,39 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Barrblandskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>Gnagspår på liggande tallåga.</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gnagspår på liggande tallåga.</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2516,10 +2554,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112328636</v>
+        <v>112309929</v>
       </c>
       <c r="B17" t="n">
-        <v>8377</v>
+        <v>90837</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2528,47 +2566,45 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>106545</v>
+        <v>5966</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Skärsjön, Skärsjön, Srm</t>
+          <t>Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>595873</v>
+        <v>595858</v>
       </c>
       <c r="R17" t="n">
-        <v>6566624</v>
+        <v>6566702</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2600,7 +2636,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2610,12 +2646,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Fleras lågor med gnagspår av mindre märgborre i området. Skogen är avverkningsanmäld.</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2624,39 +2655,8 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>Barrblandskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>Gnagspår på liggande tallåga.</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Gnagspår på liggande tallåga.</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2673,10 +2673,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112329678</v>
+        <v>112328985</v>
       </c>
       <c r="B18" t="n">
-        <v>96720</v>
+        <v>56446</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2685,50 +2685,50 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Skärsjön, Siggsäter, Srm</t>
+          <t>Skärsjön, Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>596065</v>
+        <v>595849</v>
       </c>
       <c r="R18" t="n">
-        <v>6566785</v>
+        <v>6566627</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2770,12 +2770,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Trettio plantor troligen mer. Växt intill en senvuxen gammal björk som i gammal mossig skog. Björken och de senvuxna granarna har åkt med vid unberröjning för planerad avverkning.</t>
+          <t>Spillkråka födosökte vid roten av en gammal tall.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2784,7 +2784,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2795,7 +2794,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Barrblandskog. Kontinuitetsskog</t>
+          <t>Hällmarkstallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2816,7 +2815,7 @@
         <v>112329103</v>
       </c>
       <c r="B19" t="n">
-        <v>88953</v>
+        <v>88967</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2963,10 +2962,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112328985</v>
+        <v>112329678</v>
       </c>
       <c r="B20" t="n">
-        <v>56446</v>
+        <v>96735</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2975,50 +2974,50 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Skärsjön, Skärsjön, Srm</t>
+          <t>Skärsjön, Siggsäter, Srm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>595849</v>
+        <v>596065</v>
       </c>
       <c r="R20" t="n">
-        <v>6566627</v>
+        <v>6566785</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3050,7 +3049,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3060,12 +3059,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Spillkråka födosökte vid roten av en gammal tall.</t>
+          <t>Trettio plantor troligen mer. Växt intill en senvuxen gammal björk som i gammal mossig skog. Björken och de senvuxna granarna har åkt med vid unberröjning för planerad avverkning.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3074,6 +3073,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Hällmarkstallskog. Kontinuitetsskog</t>
+          <t>Barrblandskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/A 42793-2023.xlsx
+++ b/artfynd/A 42793-2023.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112294671</v>
+        <v>112294520</v>
       </c>
       <c r="B3" t="n">
-        <v>90169</v>
+        <v>90814</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6031</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -849,13 +849,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>595731</v>
+        <v>595834</v>
       </c>
       <c r="R3" t="n">
-        <v>6566635</v>
+        <v>6566747</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -894,7 +894,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Tiotals fruktkroppar</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -921,10 +926,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112294520</v>
+        <v>112294023</v>
       </c>
       <c r="B4" t="n">
-        <v>90814</v>
+        <v>90837</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,25 +938,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -968,13 +973,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>595834</v>
+        <v>595935</v>
       </c>
       <c r="R4" t="n">
-        <v>6566747</v>
+        <v>6566771</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1003,7 +1008,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1013,12 +1018,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Tiotals fruktkroppar</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1045,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112300025</v>
+        <v>112294671</v>
       </c>
       <c r="B5" t="n">
-        <v>56575</v>
+        <v>90169</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,49 +1057,48 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>6031</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>par i lämplig häckbiotop</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Talltita, Skärsjön, Srm</t>
+          <t>Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>595883</v>
+        <v>595731</v>
       </c>
       <c r="R5" t="n">
-        <v>6566747</v>
+        <v>6566635</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1128,7 +1127,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1138,12 +1137,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Ett par observerades i kontinuitetsskogen som tyvärr är underröjd och avverkningsplanerad.</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1154,16 +1148,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Tallskog. Kontinuitetsskog</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1180,10 +1164,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112294023</v>
+        <v>112300025</v>
       </c>
       <c r="B6" t="n">
-        <v>90837</v>
+        <v>56575</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1196,44 +1180,45 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5966</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>par i lämplig häckbiotop</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Skärsjön, Srm</t>
+          <t>Talltita, Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>595935</v>
+        <v>595883</v>
       </c>
       <c r="R6" t="n">
-        <v>6566771</v>
+        <v>6566747</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1262,7 +1247,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1272,7 +1257,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ett par observerades i kontinuitetsskogen som tyvärr är underröjd och avverkningsplanerad.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1283,6 +1273,16 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1299,10 +1299,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112306221</v>
+        <v>112307652</v>
       </c>
       <c r="B7" t="n">
-        <v>8377</v>
+        <v>96735</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1311,54 +1311,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>106545</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Skärsjön, Srm</t>
+          <t>Siggsäter, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>595888</v>
+        <v>596054</v>
       </c>
       <c r="R7" t="n">
-        <v>6566731</v>
+        <v>6566713</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1387,7 +1382,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1397,7 +1392,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ca 80 plantor inom 1 kvm. Fler finns troligen. Skogen är avverkningsanmäld.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1424,10 +1424,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112309047</v>
+        <v>112306221</v>
       </c>
       <c r="B8" t="n">
-        <v>90814</v>
+        <v>8377</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1440,26 +1440,36 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1467,13 +1477,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>595832</v>
+        <v>595888</v>
       </c>
       <c r="R8" t="n">
-        <v>6566651</v>
+        <v>6566731</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1502,7 +1512,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1512,7 +1522,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1539,10 +1549,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112306905</v>
+        <v>112309047</v>
       </c>
       <c r="B9" t="n">
-        <v>8377</v>
+        <v>90814</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1555,36 +1565,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>596020</v>
+        <v>595832</v>
       </c>
       <c r="R9" t="n">
-        <v>6566834</v>
+        <v>6566651</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1664,10 +1664,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112307220</v>
+        <v>112310177</v>
       </c>
       <c r="B10" t="n">
-        <v>93553</v>
+        <v>90837</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1676,31 +1676,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2180</v>
+        <v>5966</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1708,13 +1711,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>596093</v>
+        <v>596043</v>
       </c>
       <c r="R10" t="n">
-        <v>6566778</v>
+        <v>6566512</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1743,7 +1746,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1753,12 +1756,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Blåmossa. Kuddar 40 cm höga.</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1905,10 +1903,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112308172</v>
+        <v>112306905</v>
       </c>
       <c r="B12" t="n">
-        <v>56446</v>
+        <v>8377</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1917,25 +1915,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1943,27 +1941,28 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Siggsäter, Srm</t>
+          <t>Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>596064</v>
+        <v>596020</v>
       </c>
       <c r="R12" t="n">
-        <v>6566779</v>
+        <v>6566834</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1992,7 +1991,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2002,7 +2001,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2029,10 +2028,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112310177</v>
+        <v>112307220</v>
       </c>
       <c r="B13" t="n">
-        <v>90837</v>
+        <v>93553</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2041,34 +2040,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5966</v>
+        <v>2180</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2076,13 +2072,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>596043</v>
+        <v>596093</v>
       </c>
       <c r="R13" t="n">
-        <v>6566512</v>
+        <v>6566778</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2111,7 +2107,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2121,7 +2117,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Blåmossa. Kuddar 40 cm höga.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2148,10 +2149,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112307652</v>
+        <v>112308172</v>
       </c>
       <c r="B14" t="n">
-        <v>96735</v>
+        <v>56446</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2160,35 +2161,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2196,13 +2201,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>596054</v>
+        <v>596064</v>
       </c>
       <c r="R14" t="n">
-        <v>6566713</v>
+        <v>6566779</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2231,7 +2236,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2241,12 +2246,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:33</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Ca 80 plantor inom 1 kvm. Fler finns troligen. Skogen är avverkningsanmäld.</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2273,10 +2273,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112308733</v>
+        <v>112329678</v>
       </c>
       <c r="B15" t="n">
-        <v>56446</v>
+        <v>96735</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2285,53 +2285,53 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Skärsjön, Srm</t>
+          <t>Skärsjön, Siggsäter, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>595908</v>
+        <v>596065</v>
       </c>
       <c r="R15" t="n">
-        <v>6566669</v>
+        <v>6566785</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2370,7 +2370,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Trettio plantor troligen mer. Växt intill en senvuxen gammal björk som i gammal mossig skog. Björken och de senvuxna granarna har åkt med vid unberröjning för planerad avverkning.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2379,8 +2384,19 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Barrblandskog. Kontinuitetsskog</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2397,10 +2413,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112328636</v>
+        <v>112329103</v>
       </c>
       <c r="B16" t="n">
-        <v>8377</v>
+        <v>88967</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2413,43 +2429,41 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>106545</v>
+        <v>5685</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Skärsjön, Skärsjön, Srm</t>
+          <t>Skärsjön, Siggsäter, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>595873</v>
+        <v>596050</v>
       </c>
       <c r="R16" t="n">
-        <v>6566624</v>
+        <v>6566744</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2481,7 +2495,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2491,12 +2505,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Fleras lågor med gnagspår av mindre märgborre i området. Skogen är avverkningsanmäld.</t>
+          <t>Växer på båda sidor oro grov tallåga i fuktig miljö.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2516,7 +2530,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Barrblandskog. Kontinuitetsskog</t>
+          <t>Barrblandskog. Lokalt fuktig miljö intill kärr. Kontinutetsskog</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -2529,14 +2543,9 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>Gnagspår på liggande tallåga.</t>
-        </is>
-      </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # Gnagspår på liggande tallåga.</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2673,7 +2682,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112328985</v>
+        <v>112308733</v>
       </c>
       <c r="B18" t="n">
         <v>56446</v>
@@ -2715,23 +2724,23 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Skärsjön, Skärsjön, Srm</t>
+          <t>Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>595849</v>
+        <v>595908</v>
       </c>
       <c r="R18" t="n">
-        <v>6566627</v>
+        <v>6566669</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2760,7 +2769,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2770,12 +2779,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Spillkråka födosökte vid roten av en gammal tall.</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2786,16 +2790,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>Hällmarkstallskog. Kontinuitetsskog</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2812,10 +2806,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112329103</v>
+        <v>112328985</v>
       </c>
       <c r="B19" t="n">
-        <v>88967</v>
+        <v>56446</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2824,45 +2818,50 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5685</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Skärsjön, Siggsäter, Srm</t>
+          <t>Skärsjön, Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>596050</v>
+        <v>595849</v>
       </c>
       <c r="R19" t="n">
-        <v>6566744</v>
+        <v>6566627</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2894,7 +2893,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2904,12 +2903,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Växer på båda sidor oro grov tallåga i fuktig miljö.</t>
+          <t>Spillkråka födosökte vid roten av en gammal tall.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2918,7 +2917,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2929,22 +2927,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Barrblandskog. Lokalt fuktig miljö intill kärr. Kontinutetsskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Hällmarkstallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2962,10 +2945,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112329678</v>
+        <v>112328636</v>
       </c>
       <c r="B20" t="n">
-        <v>96735</v>
+        <v>8377</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2974,50 +2957,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>106545</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Skärsjön, Siggsäter, Srm</t>
+          <t>Skärsjön, Skärsjön, Srm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>596065</v>
+        <v>595873</v>
       </c>
       <c r="R20" t="n">
-        <v>6566785</v>
+        <v>6566624</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3049,7 +3029,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3059,12 +3039,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Trettio plantor troligen mer. Växt intill en senvuxen gammal björk som i gammal mossig skog. Björken och de senvuxna granarna har åkt med vid unberröjning för planerad avverkning.</t>
+          <t>Fleras lågor med gnagspår av mindre märgborre i området. Skogen är avverkningsanmäld.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3085,6 +3065,26 @@
       <c r="AI20" t="inlineStr">
         <is>
           <t>Barrblandskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>Gnagspår på liggande tallåga.</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gnagspår på liggande tallåga.</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
